--- a/Bases_de_Dados_(2021-2022)/South America Copa Libertadores_2021.xlsx
+++ b/Bases_de_Dados_(2021-2022)/South America Copa Libertadores_2021.xlsx
@@ -211,7 +211,7 @@
     <t>2021</t>
   </si>
   <si>
-    <t>Liverpool</t>
+    <t>Liverpool FC Montevideo</t>
   </si>
   <si>
     <t>César Vallejo</t>
@@ -223,7 +223,7 @@
     <t>CD Universidad Católica</t>
   </si>
   <si>
-    <t>Deportivo Táchira</t>
+    <t>Caracas</t>
   </si>
   <si>
     <t>Guaraní</t>
@@ -271,7 +271,7 @@
     <t>Argentinos Juniors</t>
   </si>
   <si>
-    <t>Caracas</t>
+    <t>Deportivo Táchira</t>
   </si>
   <si>
     <t>Club Always Ready</t>
@@ -27086,10 +27086,10 @@
         <v>3</v>
       </c>
       <c r="R136">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S136">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T136">
         <v>2.63</v>
@@ -28229,13 +28229,13 @@
         <v>113</v>
       </c>
       <c r="Q142">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S142">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T142">
         <v>2.05</v>
